--- a/Thesis_project/01_data-input/wiiw/emp.xlsx
+++ b/Thesis_project/01_data-input/wiiw/emp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857CB17-FCD1-4B9E-AE69-0C02235220F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214DFD3-21CE-41D3-8855-49D91A791AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -15398,8 +15398,8 @@
   <dimension ref="A1:Y162"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A117" sqref="A117:Y143"/>
+      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -20954,7 +20954,7 @@
         <v>37.965000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -21039,7 +21039,7 @@
         <v>366.27</v>
       </c>
     </row>
-    <row r="74" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="20" t="s">
         <v>115</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>19.181000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>43.667999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -21355,7 +21355,7 @@
         <v>5.2969999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -21504,7 +21504,7 @@
         <v>55.259</v>
       </c>
     </row>
-    <row r="80" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>115</v>
       </c>
@@ -21588,7 +21588,7 @@
         <v>45.963000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>115</v>
       </c>
@@ -21665,7 +21665,7 @@
         <v>62.206000000000003</v>
       </c>
     </row>
-    <row r="82" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>23.562999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>115</v>
       </c>
@@ -21891,7 +21891,7 @@
         <v>99.27300000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20" t="s">
         <v>115</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>13.977</v>
       </c>
     </row>
-    <row r="86" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="20" t="s">
         <v>115</v>
       </c>
@@ -22052,7 +22052,7 @@
         <v>6.2759999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="20" t="s">
         <v>115</v>
       </c>
@@ -22136,7 +22136,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="88" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>115</v>
       </c>
@@ -22213,7 +22213,7 @@
         <v>10.018000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -22341,7 +22341,7 @@
         <v>24.413</v>
       </c>
     </row>
-    <row r="91" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -22418,7 +22418,7 @@
         <v>23.986999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>115</v>
       </c>
@@ -22495,7 +22495,7 @@
         <v>36.618000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -22644,7 +22644,7 @@
         <v>79.879000000000005</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>4.8079999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>10.069000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>115</v>
       </c>
@@ -22875,7 +22875,7 @@
         <v>4.2240000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -23024,7 +23024,7 @@
         <v>21.504999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -23101,7 +23101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>115</v>
       </c>
@@ -23178,7 +23178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -23255,7 +23255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -23332,7 +23332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>115</v>
       </c>
@@ -23486,7 +23486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -23640,7 +23640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>115</v>
       </c>
@@ -23717,7 +23717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -23794,7 +23794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>115</v>
       </c>
@@ -23871,7 +23871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -23948,7 +23948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -24102,7 +24102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>115</v>
       </c>
@@ -24179,7 +24179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -24333,7 +24333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>872.39300000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>116</v>
       </c>
@@ -24515,7 +24515,7 @@
         <v>182.845</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -24669,7 +24669,7 @@
         <v>105.53</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>12.443</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -24823,7 +24823,7 @@
         <v>9.0630000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>116</v>
       </c>
@@ -24844,7 +24844,7 @@
         <v>166.1</v>
       </c>
       <c r="G123" s="21">
-        <f t="shared" ref="G123:S123" si="36">SUM(G148)</f>
+        <f t="shared" ref="G123:R123" si="36">SUM(G148)</f>
         <v>165.2</v>
       </c>
       <c r="H123" s="21">
@@ -24920,7 +24920,7 @@
         <v>128.04399999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>116</v>
       </c>
@@ -24941,7 +24941,7 @@
         <v>44.4</v>
       </c>
       <c r="G124" s="21">
-        <f t="shared" ref="G124:S124" si="38">G151</f>
+        <f t="shared" ref="G124:R124" si="38">G151</f>
         <v>43.2</v>
       </c>
       <c r="H124" s="21">
@@ -25011,7 +25011,7 @@
         <v>61.424999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -25088,7 +25088,7 @@
         <v>143.87299999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -25165,7 +25165,7 @@
         <v>42.000999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -25242,7 +25242,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="128" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>116</v>
       </c>
@@ -25263,7 +25263,7 @@
         <v>229.20000000000002</v>
       </c>
       <c r="G128" s="21">
-        <f t="shared" ref="G128:S128" si="39">SUM(G152:G154)</f>
+        <f t="shared" ref="G128:R128" si="39">SUM(G152:G154)</f>
         <v>228.10000000000002</v>
       </c>
       <c r="H128" s="21">
@@ -25339,7 +25339,7 @@
         <v>205.78399999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>116</v>
       </c>
@@ -25416,7 +25416,7 @@
         <v>17.856000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>116</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>8.1</v>
       </c>
       <c r="G130" s="21">
-        <f t="shared" ref="G130:S130" si="41">G155</f>
+        <f t="shared" ref="G130:R130" si="41">G155</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="H130" s="21">
@@ -25507,7 +25507,7 @@
         <v>10.901999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>116</v>
       </c>
@@ -25528,7 +25528,7 @@
         <v>19.5</v>
       </c>
       <c r="G131" s="21">
-        <f t="shared" ref="G131:S131" si="42">G156</f>
+        <f t="shared" ref="G131:R131" si="42">G156</f>
         <v>19.5</v>
       </c>
       <c r="H131" s="21">
@@ -25598,7 +25598,7 @@
         <v>6.0289999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>116</v>
       </c>
@@ -25675,7 +25675,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>116</v>
       </c>
@@ -25752,7 +25752,7 @@
         <v>12.512</v>
       </c>
     </row>
-    <row r="134" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>116</v>
       </c>
@@ -25835,7 +25835,7 @@
         <v>26.802</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>116</v>
       </c>
@@ -25912,7 +25912,7 @@
         <v>49.622999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>116</v>
       </c>
@@ -25989,7 +25989,7 @@
         <v>89.605000000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>116</v>
       </c>
@@ -26066,7 +26066,7 @@
         <v>58.29</v>
       </c>
     </row>
-    <row r="138" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>116</v>
       </c>
@@ -26163,7 +26163,7 @@
         <v>197.518</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -26240,7 +26240,7 @@
         <v>15.007999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>116</v>
       </c>
@@ -26317,7 +26317,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -26394,7 +26394,7 @@
         <v>2.7770000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>116</v>
       </c>
@@ -26471,7 +26471,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>116</v>
       </c>
@@ -26568,7 +26568,7 @@
         <v>35.187999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>116</v>
       </c>
@@ -26645,7 +26645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -26722,7 +26722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>116</v>
       </c>
@@ -26799,7 +26799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>116</v>
       </c>
@@ -26876,7 +26876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>116</v>
       </c>
@@ -26953,7 +26953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>116</v>
       </c>
@@ -27030,7 +27030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>116</v>
       </c>
@@ -27107,7 +27107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>116</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>116</v>
       </c>
@@ -27261,7 +27261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>116</v>
       </c>
@@ -27338,7 +27338,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>116</v>
       </c>
@@ -27415,7 +27415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>116</v>
       </c>
@@ -27492,7 +27492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>116</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>116</v>
       </c>
@@ -27646,7 +27646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>116</v>
       </c>
@@ -27723,7 +27723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>116</v>
       </c>
@@ -27877,7 +27877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -27954,7 +27954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>116</v>
       </c>
@@ -28036,7 +28036,7 @@
   <autoFilter ref="A1:Y162" xr:uid="{BD9039C8-3CB9-4FE6-A8DE-E9D02935324D}">
     <filterColumn colId="0">
       <filters>
-        <filter val="MD00"/>
+        <filter val="XK00"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -28048,7 +28048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E42B60-83D2-4D9F-9DD7-04860BF02B73}">
   <dimension ref="A1:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -28951,8 +28951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31726168-3726-4DEF-87F6-0486CC8AB0E7}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -29710,7 +29710,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -30467,7 +30467,7 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -31257,7 +31257,7 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>

--- a/Thesis_project/01_data-input/wiiw/emp.xlsx
+++ b/Thesis_project/01_data-input/wiiw/emp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\wiiw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6214DFD3-21CE-41D3-8855-49D91A791AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1796E00-D3CE-4380-AA00-BDE1C8770461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6516" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6575" uniqueCount="119">
   <si>
     <t>wiiw Annual Database</t>
   </si>
@@ -395,6 +395,9 @@
   <si>
     <t>P-Q</t>
   </si>
+  <si>
+    <t>L-M-N</t>
+  </si>
 </sst>
 </file>
 
@@ -403,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
@@ -448,6 +451,10 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="12">
@@ -530,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -558,6 +565,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15394,12 +15402,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9039C8-3CB9-4FE6-A8DE-E9D02935324D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O92" sqref="O92"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -15489,7 +15496,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>99</v>
       </c>
@@ -15571,7 +15578,7 @@
         <v>1265.5820000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>99</v>
       </c>
@@ -15653,7 +15660,7 @@
         <v>460.87799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -15728,7 +15735,7 @@
         <v>7.5069999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -15805,7 +15812,7 @@
         <v>138.422</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>99</v>
       </c>
@@ -15882,7 +15889,7 @@
         <v>9.0459999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>99</v>
       </c>
@@ -15959,7 +15966,7 @@
         <v>10.738</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>99</v>
       </c>
@@ -16032,7 +16039,7 @@
         <v>165.71299999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>99</v>
       </c>
@@ -16114,7 +16121,7 @@
         <v>89.066999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -16191,7 +16198,7 @@
         <v>150.04300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>99</v>
       </c>
@@ -16268,7 +16275,7 @@
         <v>38.215000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -16345,7 +16352,7 @@
         <v>73.656999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>99</v>
       </c>
@@ -16418,7 +16425,7 @@
         <v>261.91500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>99</v>
       </c>
@@ -16493,7 +16500,7 @@
         <v>13.682</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>99</v>
       </c>
@@ -16577,7 +16584,7 @@
         <v>13.035</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>99</v>
       </c>
@@ -16602,7 +16609,7 @@
         <v>10.632999999999999</v>
       </c>
       <c r="N16" s="21">
-        <f t="shared" ref="N16:T16" si="8">N39</f>
+        <f t="shared" ref="N16:S16" si="8">N39</f>
         <v>11.23</v>
       </c>
       <c r="O16" s="21">
@@ -16626,7 +16633,7 @@
         <v>20.832000000000001</v>
       </c>
       <c r="T16" s="21">
-        <f t="shared" si="8"/>
+        <f>T39</f>
         <v>23.98</v>
       </c>
       <c r="U16" s="21"/>
@@ -16635,7 +16642,7 @@
       <c r="X16" s="21"/>
       <c r="Y16" s="21"/>
     </row>
-    <row r="17" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>99</v>
       </c>
@@ -16712,7 +16719,7 @@
         <v>15.951000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -16789,7 +16796,7 @@
         <v>38.417000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>99</v>
       </c>
@@ -16841,7 +16848,7 @@
         <v>54.368000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>99</v>
       </c>
@@ -16918,7 +16925,7 @@
         <v>70.019000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -16995,7 +17002,7 @@
         <v>59.003</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -17072,7 +17079,7 @@
         <v>37.423999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>99</v>
       </c>
@@ -17145,7 +17152,7 @@
         <v>166.446</v>
       </c>
     </row>
-    <row r="24" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -17222,7 +17229,7 @@
         <v>8.9469999999999992</v>
       </c>
     </row>
-    <row r="25" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -17299,7 +17306,7 @@
         <v>23.177</v>
       </c>
     </row>
-    <row r="26" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -17376,7 +17383,7 @@
         <v>6.6360000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -17453,7 +17460,7 @@
         <v>1.718</v>
       </c>
     </row>
-    <row r="28" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>99</v>
       </c>
@@ -17526,7 +17533,7 @@
         <v>40.477999999999994</v>
       </c>
     </row>
-    <row r="29" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -17603,7 +17610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -17680,7 +17687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -17757,7 +17764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -17834,7 +17841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -17911,7 +17918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -17988,7 +17995,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -18065,7 +18072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -18142,7 +18149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
@@ -18219,7 +18226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -18296,7 +18303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -18373,7 +18380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -18450,7 +18457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>99</v>
       </c>
@@ -18527,7 +18534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -18604,7 +18611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -18681,7 +18688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -18758,7 +18765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -18835,7 +18842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -18912,7 +18919,7 @@
         <v>802.85599999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>114</v>
       </c>
@@ -18989,7 +18996,7 @@
         <v>144.21299999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -19066,7 +19073,7 @@
         <v>13.904</v>
       </c>
     </row>
-    <row r="49" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -19143,7 +19150,7 @@
         <v>149.63200000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -19220,7 +19227,7 @@
         <v>17.806999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>114</v>
       </c>
@@ -19297,7 +19304,7 @@
         <v>9.4420000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>114</v>
       </c>
@@ -19382,7 +19389,7 @@
         <v>190.785</v>
       </c>
     </row>
-    <row r="53" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>114</v>
       </c>
@@ -19459,7 +19466,7 @@
         <v>63.814999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -19536,7 +19543,7 @@
         <v>101.67400000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -19613,7 +19620,7 @@
         <v>38.125999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -19690,7 +19697,7 @@
         <v>33.246000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>114</v>
       </c>
@@ -19775,7 +19782,7 @@
         <v>173.04600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>114</v>
       </c>
@@ -19852,7 +19859,7 @@
         <v>16.853999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>114</v>
       </c>
@@ -19929,7 +19936,7 @@
         <v>12.516</v>
       </c>
     </row>
-    <row r="60" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>114</v>
       </c>
@@ -20006,7 +20013,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -20083,7 +20090,7 @@
         <v>14.162000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -20160,7 +20167,7 @@
         <v>17.978000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20" t="s">
         <v>114</v>
       </c>
@@ -20245,7 +20252,7 @@
         <v>32.14</v>
       </c>
     </row>
-    <row r="64" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -20322,7 +20329,7 @@
         <v>48.378999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -20399,7 +20406,7 @@
         <v>42.273000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -20476,7 +20483,7 @@
         <v>40.533000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>114</v>
       </c>
@@ -20561,7 +20568,7 @@
         <v>131.185</v>
       </c>
     </row>
-    <row r="68" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -20638,7 +20645,7 @@
         <v>11.144</v>
       </c>
     </row>
-    <row r="69" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -20715,7 +20722,7 @@
         <v>19.303999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -20792,7 +20799,7 @@
         <v>6.4160000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -20869,7 +20876,7 @@
         <v>1.101</v>
       </c>
     </row>
-    <row r="72" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="20" t="s">
         <v>114</v>
       </c>
@@ -21432,7 +21439,7 @@
         <v>4.0419999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D79" s="22" t="s">
         <v>100</v>
       </c>
@@ -21819,7 +21826,7 @@
         <v>13.504</v>
       </c>
     </row>
-    <row r="84" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D84" s="22" t="s">
         <v>101</v>
       </c>
@@ -22101,7 +22108,7 @@
         <v>7</v>
       </c>
       <c r="O87" s="21">
-        <f t="shared" si="28"/>
+        <f>O110</f>
         <v>8</v>
       </c>
       <c r="P87" s="3" t="s">
@@ -22290,7 +22297,7 @@
         <v>14.395</v>
       </c>
     </row>
-    <row r="90" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D90" s="22" t="s">
         <v>113</v>
       </c>
@@ -22572,7 +22579,7 @@
         <v>19.274000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D94" s="22" t="s">
         <v>103</v>
       </c>
@@ -22952,7 +22959,7 @@
         <v>2.4039999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D99" s="22" t="s">
         <v>104</v>
       </c>
@@ -24333,7 +24340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -24424,7 +24431,7 @@
         <v>872.39300000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>116</v>
       </c>
@@ -24515,7 +24522,7 @@
         <v>182.845</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -24592,7 +24599,7 @@
         <v>1.008</v>
       </c>
     </row>
-    <row r="120" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>116</v>
       </c>
@@ -24669,7 +24676,7 @@
         <v>105.53</v>
       </c>
     </row>
-    <row r="121" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>116</v>
       </c>
@@ -24746,7 +24753,7 @@
         <v>12.443</v>
       </c>
     </row>
-    <row r="122" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -24823,7 +24830,7 @@
         <v>9.0630000000000006</v>
       </c>
     </row>
-    <row r="123" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>116</v>
       </c>
@@ -24920,7 +24927,7 @@
         <v>128.04399999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>116</v>
       </c>
@@ -25011,7 +25018,7 @@
         <v>61.424999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>116</v>
       </c>
@@ -25088,7 +25095,7 @@
         <v>143.87299999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -25165,7 +25172,7 @@
         <v>42.000999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>116</v>
       </c>
@@ -25242,7 +25249,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="128" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>116</v>
       </c>
@@ -25339,7 +25346,7 @@
         <v>205.78399999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>116</v>
       </c>
@@ -25416,7 +25423,7 @@
         <v>17.856000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="20" t="s">
         <v>116</v>
       </c>
@@ -25507,7 +25514,7 @@
         <v>10.901999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="20" t="s">
         <v>116</v>
       </c>
@@ -25598,7 +25605,7 @@
         <v>6.0289999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>116</v>
       </c>
@@ -25675,7 +25682,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>116</v>
       </c>
@@ -25752,7 +25759,7 @@
         <v>12.512</v>
       </c>
     </row>
-    <row r="134" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="20" t="s">
         <v>116</v>
       </c>
@@ -25835,7 +25842,7 @@
         <v>26.802</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>116</v>
       </c>
@@ -25912,7 +25919,7 @@
         <v>49.622999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>116</v>
       </c>
@@ -25989,7 +25996,7 @@
         <v>89.605000000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>116</v>
       </c>
@@ -26066,7 +26073,7 @@
         <v>58.29</v>
       </c>
     </row>
-    <row r="138" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="20" t="s">
         <v>116</v>
       </c>
@@ -26163,7 +26170,7 @@
         <v>197.518</v>
       </c>
     </row>
-    <row r="139" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>116</v>
       </c>
@@ -26240,7 +26247,7 @@
         <v>15.007999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>116</v>
       </c>
@@ -26317,7 +26324,7 @@
         <v>16.82</v>
       </c>
     </row>
-    <row r="141" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>116</v>
       </c>
@@ -26394,7 +26401,7 @@
         <v>2.7770000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>116</v>
       </c>
@@ -26471,7 +26478,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="143" spans="1:25" s="20" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="20" t="s">
         <v>116</v>
       </c>
@@ -26568,7 +26575,7 @@
         <v>35.187999999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>116</v>
       </c>
@@ -26645,7 +26652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -26722,7 +26729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>116</v>
       </c>
@@ -26799,7 +26806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>116</v>
       </c>
@@ -26876,7 +26883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>116</v>
       </c>
@@ -26953,7 +26960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>116</v>
       </c>
@@ -27030,7 +27037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>116</v>
       </c>
@@ -27107,7 +27114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>116</v>
       </c>
@@ -27184,7 +27191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>116</v>
       </c>
@@ -27261,7 +27268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>116</v>
       </c>
@@ -27338,7 +27345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>116</v>
       </c>
@@ -27415,7 +27422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>116</v>
       </c>
@@ -27492,7 +27499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>116</v>
       </c>
@@ -27569,7 +27576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>116</v>
       </c>
@@ -27646,7 +27653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>116</v>
       </c>
@@ -27723,7 +27730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>116</v>
       </c>
@@ -27800,7 +27807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>116</v>
       </c>
@@ -27877,7 +27884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -27954,7 +27961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:25" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>116</v>
       </c>
@@ -28033,23 +28040,17 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A1:Y162" xr:uid="{BD9039C8-3CB9-4FE6-A8DE-E9D02935324D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="XK00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Y162" xr:uid="{BD9039C8-3CB9-4FE6-A8DE-E9D02935324D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E42B60-83D2-4D9F-9DD7-04860BF02B73}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -28802,14 +28803,11 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
@@ -28829,43 +28827,56 @@
         <v>27</v>
       </c>
       <c r="L11">
-        <v>139.614</v>
+        <f>SUM(L9:L10)</f>
+        <v>10.632999999999999</v>
       </c>
       <c r="M11">
-        <v>155.01999999999998</v>
+        <f t="shared" ref="M11:X11" si="0">SUM(M9:M10)</f>
+        <v>11.23</v>
       </c>
       <c r="N11">
-        <v>148.15100000000001</v>
+        <f t="shared" si="0"/>
+        <v>16.135000000000002</v>
       </c>
       <c r="O11">
-        <v>150.47799999999998</v>
+        <f t="shared" si="0"/>
+        <v>11.927</v>
       </c>
       <c r="P11">
-        <v>141.50200000000001</v>
+        <f t="shared" si="0"/>
+        <v>14.127000000000001</v>
       </c>
       <c r="Q11">
-        <v>140.328</v>
+        <f t="shared" si="0"/>
+        <v>15.59</v>
       </c>
       <c r="R11">
-        <v>145.62700000000001</v>
+        <f t="shared" si="0"/>
+        <v>20.832000000000001</v>
       </c>
       <c r="S11">
-        <v>139.84700000000001</v>
+        <f>SUM(S9)</f>
+        <v>23.98</v>
       </c>
       <c r="T11">
-        <v>152.672</v>
+        <f t="shared" si="0"/>
+        <v>30.908999999999999</v>
       </c>
       <c r="U11">
-        <v>150.982</v>
+        <f t="shared" si="0"/>
+        <v>39.711999999999996</v>
       </c>
       <c r="V11">
-        <v>168.52199999999999</v>
+        <f t="shared" si="0"/>
+        <v>45.526000000000003</v>
       </c>
       <c r="W11">
-        <v>168.548</v>
+        <f t="shared" si="0"/>
+        <v>48.742999999999995</v>
       </c>
       <c r="X11">
-        <v>166.446</v>
+        <f t="shared" si="0"/>
+        <v>54.368000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -28876,83 +28887,158 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12">
+        <v>139.614</v>
+      </c>
+      <c r="M12">
+        <v>155.01999999999998</v>
+      </c>
+      <c r="N12">
+        <v>148.15100000000001</v>
+      </c>
+      <c r="O12">
+        <v>150.47799999999998</v>
+      </c>
+      <c r="P12">
+        <v>141.50200000000001</v>
+      </c>
+      <c r="Q12">
+        <v>140.328</v>
+      </c>
+      <c r="R12">
+        <v>145.62700000000001</v>
+      </c>
+      <c r="S12">
+        <v>139.84700000000001</v>
+      </c>
+      <c r="T12">
+        <v>152.672</v>
+      </c>
+      <c r="U12">
+        <v>150.982</v>
+      </c>
+      <c r="V12">
+        <v>168.52199999999999</v>
+      </c>
+      <c r="W12">
+        <v>168.548</v>
+      </c>
+      <c r="X12">
+        <v>166.446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12">
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13">
         <v>28.004999999999999</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>33.700000000000003</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>32.131</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>39.878999999999998</v>
       </c>
-      <c r="P12">
+      <c r="P13">
         <v>38.796999999999997</v>
       </c>
-      <c r="Q12">
+      <c r="Q13">
         <v>31.259</v>
       </c>
-      <c r="R12">
+      <c r="R13">
         <v>32.033000000000001</v>
       </c>
-      <c r="S12">
+      <c r="S13">
         <v>51.039000000000001</v>
       </c>
-      <c r="T12">
+      <c r="T13">
         <v>34.475000000000001</v>
       </c>
-      <c r="U12">
+      <c r="U13">
         <v>35.800000000000004</v>
       </c>
-      <c r="V12">
+      <c r="V13">
         <v>40.576000000000001</v>
       </c>
-      <c r="W12">
+      <c r="W13">
         <v>43.961999999999996</v>
       </c>
-      <c r="X12">
+      <c r="X13">
         <v>40.477999999999994</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31726168-3726-4DEF-87F6-0486CC8AB0E7}">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -29710,7 +29796,7 @@
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -29752,28 +29838,36 @@
         <v>27</v>
       </c>
       <c r="Q11">
-        <v>146.36000000000001</v>
+        <f>SUM(Q9:Q10)</f>
+        <v>24.411999999999999</v>
       </c>
       <c r="R11">
-        <v>162.79300000000001</v>
+        <f t="shared" ref="R11:X11" si="0">SUM(R9:R10)</f>
+        <v>24.168000000000003</v>
       </c>
       <c r="S11">
-        <v>156.827</v>
+        <f t="shared" si="0"/>
+        <v>25.828000000000003</v>
       </c>
       <c r="T11">
-        <v>159.52799999999999</v>
+        <f t="shared" si="0"/>
+        <v>26.003</v>
       </c>
       <c r="U11">
-        <v>139.02699999999999</v>
+        <f t="shared" si="0"/>
+        <v>28.520999999999997</v>
       </c>
       <c r="V11">
-        <v>143.887</v>
+        <f t="shared" si="0"/>
+        <v>29.803000000000001</v>
       </c>
       <c r="W11">
-        <v>145.726</v>
+        <f t="shared" si="0"/>
+        <v>28.493000000000002</v>
       </c>
       <c r="X11">
-        <v>131.185</v>
+        <f t="shared" si="0"/>
+        <v>32.477000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
@@ -29784,7 +29878,7 @@
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -29826,39 +29920,39 @@
         <v>27</v>
       </c>
       <c r="Q12">
-        <v>29.652000000000001</v>
+        <v>146.36000000000001</v>
       </c>
       <c r="R12">
-        <v>27.978999999999999</v>
+        <v>162.79300000000001</v>
       </c>
       <c r="S12">
-        <v>28.361000000000001</v>
+        <v>156.827</v>
       </c>
       <c r="T12">
-        <v>34.328000000000003</v>
+        <v>159.52799999999999</v>
       </c>
       <c r="U12">
-        <v>34.585999999999999</v>
+        <v>139.02699999999999</v>
       </c>
       <c r="V12">
-        <v>37.557000000000002</v>
+        <v>143.887</v>
       </c>
       <c r="W12">
-        <v>40.993000000000002</v>
+        <v>145.726</v>
       </c>
       <c r="X12">
-        <v>37.965000000000003</v>
+        <v>131.185</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
         <v>24</v>
@@ -29875,53 +29969,53 @@
       <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="I13">
-        <v>266</v>
-      </c>
-      <c r="J13">
-        <v>289</v>
-      </c>
-      <c r="K13">
-        <v>297</v>
-      </c>
-      <c r="L13">
-        <v>281</v>
-      </c>
-      <c r="M13">
-        <v>266</v>
-      </c>
-      <c r="N13">
-        <v>290</v>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
       </c>
       <c r="O13" t="s">
         <v>27</v>
       </c>
-      <c r="P13">
-        <v>280.45400000000001</v>
+      <c r="P13" t="s">
+        <v>27</v>
       </c>
       <c r="Q13">
-        <v>304.70999999999998</v>
+        <v>29.652000000000001</v>
       </c>
       <c r="R13">
-        <v>342.09</v>
+        <v>27.978999999999999</v>
       </c>
       <c r="S13">
-        <v>325.72000000000003</v>
+        <v>28.361000000000001</v>
       </c>
       <c r="T13">
-        <v>298.79599999999999</v>
+        <v>34.328000000000003</v>
       </c>
       <c r="U13">
-        <v>334.15699999999998</v>
+        <v>34.585999999999999</v>
       </c>
       <c r="V13">
-        <v>360.14400000000001</v>
+        <v>37.557000000000002</v>
       </c>
       <c r="W13">
-        <v>348.149</v>
+        <v>40.993000000000002</v>
       </c>
       <c r="X13">
-        <v>366.27</v>
+        <v>37.965000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
@@ -29932,7 +30026,7 @@
         <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D14" t="s">
         <v>24</v>
@@ -29950,52 +30044,52 @@
         <v>27</v>
       </c>
       <c r="I14">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="J14">
-        <v>54</v>
+        <v>289</v>
       </c>
       <c r="K14">
-        <v>64</v>
+        <v>297</v>
       </c>
       <c r="L14">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="N14">
-        <v>18</v>
+        <v>290</v>
       </c>
       <c r="O14" t="s">
         <v>27</v>
       </c>
       <c r="P14">
-        <v>12.382999999999999</v>
+        <v>280.45400000000001</v>
       </c>
       <c r="Q14">
-        <v>13.875</v>
+        <v>304.70999999999998</v>
       </c>
       <c r="R14">
-        <v>20.329999999999998</v>
+        <v>342.09</v>
       </c>
       <c r="S14">
-        <v>8.5869999999999997</v>
+        <v>325.72000000000003</v>
       </c>
       <c r="T14">
-        <v>6.7279999999999998</v>
+        <v>298.79599999999999</v>
       </c>
       <c r="U14">
-        <v>14.191000000000001</v>
+        <v>334.15699999999998</v>
       </c>
       <c r="V14">
-        <v>15.933</v>
+        <v>360.14400000000001</v>
       </c>
       <c r="W14">
-        <v>12.316000000000001</v>
+        <v>348.149</v>
       </c>
       <c r="X14">
-        <v>19.181000000000001</v>
+        <v>366.27</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
@@ -30006,58 +30100,70 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
       </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
       <c r="I15">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J15">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N15">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
         <v>27</v>
       </c>
       <c r="P15">
-        <v>42.943999999999996</v>
+        <v>12.382999999999999</v>
       </c>
       <c r="Q15">
-        <v>57.593999999999994</v>
+        <v>13.875</v>
       </c>
       <c r="R15">
-        <v>57.317999999999998</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="S15">
-        <v>57.596000000000004</v>
+        <v>8.5869999999999997</v>
       </c>
       <c r="T15">
-        <v>56.158000000000001</v>
+        <v>6.7279999999999998</v>
       </c>
       <c r="U15">
-        <v>60.074000000000005</v>
+        <v>14.191000000000001</v>
       </c>
       <c r="V15">
-        <v>62.53</v>
+        <v>15.933</v>
       </c>
       <c r="W15">
-        <v>49.754999999999995</v>
+        <v>12.316000000000001</v>
       </c>
       <c r="X15">
-        <v>55.259</v>
+        <v>19.181000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
@@ -30068,7 +30174,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -30086,52 +30192,52 @@
         <v>27</v>
       </c>
       <c r="I16">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="J16">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L16">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N16">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O16" t="s">
         <v>27</v>
       </c>
       <c r="P16">
-        <v>23.584</v>
+        <v>42.943999999999996</v>
       </c>
       <c r="Q16">
-        <v>29.024000000000001</v>
+        <v>57.593999999999994</v>
       </c>
       <c r="R16">
-        <v>38.997999999999998</v>
+        <v>57.317999999999998</v>
       </c>
       <c r="S16">
-        <v>35.585000000000001</v>
+        <v>57.596000000000004</v>
       </c>
       <c r="T16">
-        <v>28.244</v>
+        <v>56.158000000000001</v>
       </c>
       <c r="U16">
-        <v>38.570999999999998</v>
+        <v>60.074000000000005</v>
       </c>
       <c r="V16">
-        <v>46.551000000000002</v>
+        <v>62.53</v>
       </c>
       <c r="W16">
-        <v>41.497</v>
+        <v>49.754999999999995</v>
       </c>
       <c r="X16">
-        <v>45.963000000000001</v>
+        <v>55.259</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -30142,58 +30248,70 @@
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
       <c r="I17">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="J17">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M17">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N17">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="O17" t="s">
         <v>27</v>
       </c>
       <c r="P17">
-        <v>81.01100000000001</v>
+        <v>23.584</v>
       </c>
       <c r="Q17">
-        <v>65.644999999999996</v>
+        <v>29.024000000000001</v>
       </c>
       <c r="R17">
-        <v>72.462999999999994</v>
+        <v>38.997999999999998</v>
       </c>
       <c r="S17">
-        <v>77.534999999999997</v>
+        <v>35.585000000000001</v>
       </c>
       <c r="T17">
-        <v>71.12</v>
+        <v>28.244</v>
       </c>
       <c r="U17">
-        <v>81.404999999999987</v>
+        <v>38.570999999999998</v>
       </c>
       <c r="V17">
-        <v>86.212000000000018</v>
+        <v>46.551000000000002</v>
       </c>
       <c r="W17">
-        <v>94.411000000000001</v>
+        <v>41.497</v>
       </c>
       <c r="X17">
-        <v>99.27300000000001</v>
+        <v>45.963000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -30204,7 +30322,7 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -30221,53 +30339,53 @@
       <c r="H18" t="s">
         <v>27</v>
       </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
+      <c r="I18">
+        <v>59</v>
+      </c>
+      <c r="J18">
+        <v>62</v>
+      </c>
+      <c r="K18">
+        <v>68</v>
+      </c>
+      <c r="L18">
+        <v>71</v>
+      </c>
+      <c r="M18">
+        <v>72</v>
+      </c>
+      <c r="N18">
+        <v>81</v>
       </c>
       <c r="O18" t="s">
         <v>27</v>
       </c>
-      <c r="P18" t="s">
-        <v>27</v>
+      <c r="P18">
+        <v>81.01100000000001</v>
       </c>
       <c r="Q18">
-        <v>6.8929999999999998</v>
+        <v>65.644999999999996</v>
       </c>
       <c r="R18">
-        <v>9.9629999999999992</v>
+        <v>72.462999999999994</v>
       </c>
       <c r="S18">
-        <v>9.5719999999999992</v>
+        <v>77.534999999999997</v>
       </c>
       <c r="T18">
-        <v>9.6359999999999992</v>
+        <v>71.12</v>
       </c>
       <c r="U18">
-        <v>7.3150000000000004</v>
+        <v>81.404999999999987</v>
       </c>
       <c r="V18">
-        <v>9.4939999999999998</v>
+        <v>86.212000000000018</v>
       </c>
       <c r="W18">
-        <v>11.954000000000001</v>
+        <v>94.411000000000001</v>
       </c>
       <c r="X18">
-        <v>13.977</v>
+        <v>99.27300000000001</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -30278,7 +30396,7 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -30295,56 +30413,56 @@
       <c r="H19" t="s">
         <v>27</v>
       </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
-        <v>4</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>6</v>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
       </c>
       <c r="O19" t="s">
         <v>27</v>
       </c>
-      <c r="P19">
-        <v>6.3029999999999999</v>
+      <c r="P19" t="s">
+        <v>27</v>
       </c>
       <c r="Q19">
-        <v>6.758</v>
+        <v>6.8929999999999998</v>
       </c>
       <c r="R19">
-        <v>7.56</v>
+        <v>9.9629999999999992</v>
       </c>
       <c r="S19">
-        <v>5.9420000000000002</v>
+        <v>9.5719999999999992</v>
       </c>
       <c r="T19">
-        <v>5.8739999999999997</v>
+        <v>9.6359999999999992</v>
       </c>
       <c r="U19">
-        <v>6.4969999999999999</v>
+        <v>7.3150000000000004</v>
       </c>
       <c r="V19">
-        <v>6.2809999999999997</v>
+        <v>9.4939999999999998</v>
       </c>
       <c r="W19">
-        <v>7.0759999999999996</v>
+        <v>11.954000000000001</v>
       </c>
       <c r="X19">
-        <v>6.2759999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13.977</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>115</v>
       </c>
@@ -30352,7 +30470,7 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -30370,55 +30488,55 @@
         <v>27</v>
       </c>
       <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
         <v>6</v>
       </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>8</v>
-      </c>
       <c r="O20" t="s">
         <v>27</v>
       </c>
       <c r="P20">
-        <v>10.737</v>
+        <v>6.3029999999999999</v>
       </c>
       <c r="Q20">
-        <v>0.73899999999999999</v>
+        <v>6.758</v>
       </c>
       <c r="R20">
-        <v>0.622</v>
+        <v>7.56</v>
       </c>
       <c r="S20">
-        <v>0.158</v>
+        <v>5.9420000000000002</v>
       </c>
       <c r="T20">
-        <v>0.253</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="U20">
-        <v>0.32400000000000001</v>
+        <v>6.4969999999999999</v>
       </c>
       <c r="V20">
-        <v>0.219</v>
+        <v>6.2809999999999997</v>
       </c>
       <c r="W20">
-        <v>0.35099999999999998</v>
+        <v>7.0759999999999996</v>
       </c>
       <c r="X20">
-        <v>0.54400000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+        <v>6.2759999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -30426,37 +30544,70 @@
         <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
       </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21" s="23">
+        <v>8</v>
+      </c>
       <c r="O21" t="s">
         <v>27</v>
       </c>
+      <c r="P21">
+        <v>10.737</v>
+      </c>
       <c r="Q21">
-        <v>19.923000000000002</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="R21">
-        <v>20.125999999999998</v>
+        <v>0.622</v>
       </c>
       <c r="S21">
-        <v>17.513999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="T21">
-        <v>16.132999999999999</v>
+        <v>0.253</v>
       </c>
       <c r="U21">
-        <v>17.582000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="V21">
-        <v>21.763999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="W21">
-        <v>16.191000000000003</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="X21">
-        <v>24.413</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.2">
@@ -30467,58 +30618,49 @@
         <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
       </c>
-      <c r="I22">
-        <v>58</v>
-      </c>
-      <c r="J22">
-        <v>70</v>
-      </c>
-      <c r="K22">
-        <v>74</v>
-      </c>
-      <c r="L22">
-        <v>81</v>
-      </c>
-      <c r="M22">
-        <v>79</v>
-      </c>
-      <c r="N22">
-        <v>88</v>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>27</v>
       </c>
       <c r="O22" t="s">
         <v>27</v>
       </c>
-      <c r="P22">
-        <v>81.811000000000007</v>
-      </c>
       <c r="Q22">
-        <v>74.64500000000001</v>
+        <v>19.923000000000002</v>
       </c>
       <c r="R22">
-        <v>82.564999999999998</v>
+        <v>20.125999999999998</v>
       </c>
       <c r="S22">
-        <v>83.085000000000008</v>
+        <v>17.513999999999999</v>
       </c>
       <c r="T22">
-        <v>77.09899999999999</v>
+        <v>16.132999999999999</v>
       </c>
       <c r="U22">
-        <v>78.974999999999994</v>
+        <v>17.582000000000001</v>
       </c>
       <c r="V22">
-        <v>79.350999999999999</v>
+        <v>21.763999999999999</v>
       </c>
       <c r="W22">
-        <v>83.808999999999997</v>
+        <v>16.191000000000003</v>
       </c>
       <c r="X22">
-        <v>79.879000000000005</v>
+        <v>24.413</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
@@ -30529,206 +30671,233 @@
         <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
       </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
       <c r="I23">
-        <v>29</v>
+        <f>SUM(I21:I22)</f>
+        <v>6</v>
       </c>
       <c r="J23">
-        <v>43</v>
+        <f t="shared" ref="J23:P23" si="1">SUM(J21:J22)</f>
+        <v>7</v>
       </c>
       <c r="K23">
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="O23" t="s">
         <v>27</v>
       </c>
       <c r="P23">
-        <v>38.18</v>
+        <f t="shared" si="1"/>
+        <v>10.737</v>
       </c>
       <c r="Q23">
-        <v>29.614000000000001</v>
+        <f>SUM(Q21:Q22)</f>
+        <v>20.662000000000003</v>
       </c>
       <c r="R23">
-        <v>32.144999999999996</v>
+        <f t="shared" ref="R23" si="2">SUM(R21:R22)</f>
+        <v>20.747999999999998</v>
       </c>
       <c r="S23">
-        <v>30.146000000000001</v>
+        <f t="shared" ref="S23" si="3">SUM(S21:S22)</f>
+        <v>17.672000000000001</v>
       </c>
       <c r="T23">
-        <v>27.550999999999998</v>
+        <f t="shared" ref="T23" si="4">SUM(T21:T22)</f>
+        <v>16.385999999999999</v>
       </c>
       <c r="U23">
-        <v>29.223000000000003</v>
+        <f t="shared" ref="U23" si="5">SUM(U21:U22)</f>
+        <v>17.906000000000002</v>
       </c>
       <c r="V23">
-        <v>31.809000000000001</v>
+        <f t="shared" ref="V23" si="6">SUM(V21:V22)</f>
+        <v>21.983000000000001</v>
       </c>
       <c r="W23">
-        <v>30.789000000000005</v>
+        <f t="shared" ref="W23" si="7">SUM(W21:W22)</f>
+        <v>16.542000000000002</v>
       </c>
       <c r="X23">
-        <v>21.504999999999999</v>
+        <f t="shared" ref="X23" si="8">SUM(X21:X22)</f>
+        <v>24.957000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="E24">
-        <v>1514.6</v>
-      </c>
-      <c r="F24">
-        <v>1498.8</v>
-      </c>
-      <c r="G24">
-        <v>1505</v>
-      </c>
-      <c r="H24">
-        <v>1356.4</v>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>27</v>
       </c>
       <c r="I24">
-        <v>1316</v>
+        <v>58</v>
       </c>
       <c r="J24">
-        <v>1318.6</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>1257.2</v>
+        <v>74</v>
       </c>
       <c r="L24">
-        <v>1247.2</v>
+        <v>81</v>
       </c>
       <c r="M24">
-        <v>1251</v>
+        <v>79</v>
       </c>
       <c r="N24">
-        <v>1184.3</v>
-      </c>
-      <c r="O24">
-        <v>1143.5</v>
+        <v>88</v>
+      </c>
+      <c r="O24" t="s">
+        <v>27</v>
       </c>
       <c r="P24">
-        <v>1173.5999999999999</v>
+        <v>81.811000000000007</v>
       </c>
       <c r="Q24">
-        <v>1146.9000000000001</v>
+        <v>74.64500000000001</v>
       </c>
       <c r="R24">
-        <v>1172.7</v>
+        <v>82.564999999999998</v>
       </c>
       <c r="S24">
-        <v>869.79899999999998</v>
+        <v>83.085000000000008</v>
       </c>
       <c r="T24">
-        <v>847.101</v>
+        <v>77.09899999999999</v>
       </c>
       <c r="U24">
-        <v>832.17899999999997</v>
+        <v>78.974999999999994</v>
       </c>
       <c r="V24">
-        <v>800.17899999999997</v>
+        <v>79.350999999999999</v>
       </c>
       <c r="W24">
-        <v>794.07600000000002</v>
+        <v>83.808999999999997</v>
       </c>
       <c r="X24">
-        <v>872.39300000000003</v>
+        <v>79.879000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E25">
-        <v>769</v>
-      </c>
-      <c r="F25">
-        <v>763.4</v>
-      </c>
-      <c r="G25">
-        <v>745.2</v>
-      </c>
-      <c r="H25">
-        <v>581.6</v>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
       </c>
       <c r="I25">
-        <v>531.9</v>
+        <v>29</v>
       </c>
       <c r="J25">
-        <v>535</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>421.6</v>
+        <v>36</v>
       </c>
       <c r="L25">
-        <v>407.8</v>
+        <v>43</v>
       </c>
       <c r="M25">
-        <v>387.4</v>
+        <v>35</v>
       </c>
       <c r="N25">
-        <v>332.4</v>
-      </c>
-      <c r="O25">
-        <v>313.5</v>
+        <v>41</v>
+      </c>
+      <c r="O25" t="s">
+        <v>27</v>
       </c>
       <c r="P25">
-        <v>322</v>
+        <v>38.18</v>
       </c>
       <c r="Q25">
-        <v>302.5</v>
+        <v>29.614000000000001</v>
       </c>
       <c r="R25">
-        <v>336.8</v>
+        <v>32.144999999999996</v>
       </c>
       <c r="S25">
-        <v>206.5</v>
+        <v>30.146000000000001</v>
       </c>
       <c r="T25">
-        <v>196.2</v>
+        <v>27.550999999999998</v>
       </c>
       <c r="U25">
-        <v>201.85599999999999</v>
+        <v>29.223000000000003</v>
       </c>
       <c r="V25">
-        <v>180.80099999999999</v>
+        <v>31.809000000000001</v>
       </c>
       <c r="W25">
-        <v>194.191</v>
+        <v>30.789000000000005</v>
       </c>
       <c r="X25">
-        <v>182.845</v>
+        <v>21.504999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -30739,70 +30908,70 @@
         <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
       </c>
       <c r="E26">
-        <v>166.1</v>
+        <v>1514.6</v>
       </c>
       <c r="F26">
-        <v>165.2</v>
+        <v>1498.8</v>
       </c>
       <c r="G26">
-        <v>171.4</v>
+        <v>1505</v>
       </c>
       <c r="H26">
-        <v>164.5</v>
+        <v>1356.4</v>
       </c>
       <c r="I26">
-        <v>161.80000000000001</v>
+        <v>1316</v>
       </c>
       <c r="J26">
-        <v>159.4</v>
+        <v>1318.6</v>
       </c>
       <c r="K26">
-        <v>161.4</v>
+        <v>1257.2</v>
       </c>
       <c r="L26">
-        <v>158.1</v>
+        <v>1247.2</v>
       </c>
       <c r="M26">
-        <v>163.30000000000001</v>
+        <v>1251</v>
       </c>
       <c r="N26">
-        <v>155.4</v>
+        <v>1184.3</v>
       </c>
       <c r="O26">
-        <v>145.80000000000001</v>
+        <v>1143.5</v>
       </c>
       <c r="P26">
-        <v>153.19999999999999</v>
+        <v>1173.5999999999999</v>
       </c>
       <c r="Q26">
-        <v>150.9</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="R26">
-        <v>142.4</v>
+        <v>1172.7</v>
       </c>
       <c r="S26">
-        <v>117.60000000000001</v>
+        <v>869.79899999999998</v>
       </c>
       <c r="T26">
-        <v>116.6</v>
+        <v>847.101</v>
       </c>
       <c r="U26">
-        <v>114.62</v>
+        <v>832.17899999999997</v>
       </c>
       <c r="V26">
-        <v>107.31699999999999</v>
+        <v>800.17899999999997</v>
       </c>
       <c r="W26">
-        <v>108.36800000000001</v>
+        <v>794.07600000000002</v>
       </c>
       <c r="X26">
-        <v>128.04399999999998</v>
+        <v>872.39300000000003</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.2">
@@ -30813,70 +30982,70 @@
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
       </c>
       <c r="E27">
-        <v>44.4</v>
+        <v>769</v>
       </c>
       <c r="F27">
-        <v>43.2</v>
+        <v>763.4</v>
       </c>
       <c r="G27">
-        <v>46</v>
+        <v>745.2</v>
       </c>
       <c r="H27">
-        <v>53.2</v>
+        <v>581.6</v>
       </c>
       <c r="I27">
-        <v>52</v>
+        <v>531.9</v>
       </c>
       <c r="J27">
-        <v>51.6</v>
+        <v>535</v>
       </c>
       <c r="K27">
-        <v>67.3</v>
+        <v>421.6</v>
       </c>
       <c r="L27">
-        <v>75.7</v>
+        <v>407.8</v>
       </c>
       <c r="M27">
-        <v>82.8</v>
+        <v>387.4</v>
       </c>
       <c r="N27">
-        <v>72.900000000000006</v>
+        <v>332.4</v>
       </c>
       <c r="O27">
-        <v>67.5</v>
+        <v>313.5</v>
       </c>
       <c r="P27">
-        <v>66.8</v>
+        <v>322</v>
       </c>
       <c r="Q27">
-        <v>70.2</v>
+        <v>302.5</v>
       </c>
       <c r="R27">
-        <v>65.05</v>
+        <v>336.8</v>
       </c>
       <c r="S27">
-        <v>53.1</v>
+        <v>206.5</v>
       </c>
       <c r="T27">
-        <v>52.7</v>
+        <v>196.2</v>
       </c>
       <c r="U27">
-        <v>48.283999999999999</v>
+        <v>201.85599999999999</v>
       </c>
       <c r="V27">
-        <v>43.36</v>
+        <v>180.80099999999999</v>
       </c>
       <c r="W27">
-        <v>45.737000000000002</v>
+        <v>194.191</v>
       </c>
       <c r="X27">
-        <v>61.424999999999997</v>
+        <v>182.845</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
@@ -30887,70 +31056,70 @@
         <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
       </c>
       <c r="E28">
-        <v>229.20000000000002</v>
+        <v>166.1</v>
       </c>
       <c r="F28">
-        <v>228.10000000000002</v>
+        <v>165.2</v>
       </c>
       <c r="G28">
-        <v>236.5</v>
+        <v>171.4</v>
       </c>
       <c r="H28">
-        <v>243.39999999999998</v>
+        <v>164.5</v>
       </c>
       <c r="I28">
-        <v>252.1</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="J28">
-        <v>253.9</v>
+        <v>159.4</v>
       </c>
       <c r="K28">
-        <v>261.2</v>
+        <v>161.4</v>
       </c>
       <c r="L28">
-        <v>266.60000000000002</v>
+        <v>158.1</v>
       </c>
       <c r="M28">
-        <v>279.59999999999997</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="N28">
-        <v>285.3</v>
+        <v>155.4</v>
       </c>
       <c r="O28">
-        <v>277.10000000000002</v>
+        <v>145.80000000000001</v>
       </c>
       <c r="P28">
-        <v>290</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="Q28">
-        <v>279.79999999999995</v>
+        <v>150.9</v>
       </c>
       <c r="R28">
-        <v>284.55</v>
+        <v>142.4</v>
       </c>
       <c r="S28">
-        <v>203.69800000000004</v>
+        <v>117.60000000000001</v>
       </c>
       <c r="T28">
-        <v>188.02599999999998</v>
+        <v>116.6</v>
       </c>
       <c r="U28">
-        <v>193.547</v>
+        <v>114.62</v>
       </c>
       <c r="V28">
-        <v>195.226</v>
+        <v>107.31699999999999</v>
       </c>
       <c r="W28">
-        <v>180.76</v>
+        <v>108.36800000000001</v>
       </c>
       <c r="X28">
-        <v>205.78399999999999</v>
+        <v>128.04399999999998</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
@@ -30961,70 +31130,70 @@
         <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" t="s">
-        <v>27</v>
-      </c>
-      <c r="O29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R29" t="s">
-        <v>27</v>
+      <c r="E29">
+        <v>44.4</v>
+      </c>
+      <c r="F29">
+        <v>43.2</v>
+      </c>
+      <c r="G29">
+        <v>46</v>
+      </c>
+      <c r="H29">
+        <v>53.2</v>
+      </c>
+      <c r="I29">
+        <v>52</v>
+      </c>
+      <c r="J29">
+        <v>51.6</v>
+      </c>
+      <c r="K29">
+        <v>67.3</v>
+      </c>
+      <c r="L29">
+        <v>75.7</v>
+      </c>
+      <c r="M29">
+        <v>82.8</v>
+      </c>
+      <c r="N29">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="O29">
+        <v>67.5</v>
+      </c>
+      <c r="P29">
+        <v>66.8</v>
+      </c>
+      <c r="Q29">
+        <v>70.2</v>
+      </c>
+      <c r="R29">
+        <v>65.05</v>
       </c>
       <c r="S29">
-        <v>16.602</v>
+        <v>53.1</v>
       </c>
       <c r="T29">
-        <v>18.173999999999999</v>
+        <v>52.7</v>
       </c>
       <c r="U29">
-        <v>16.486000000000001</v>
+        <v>48.283999999999999</v>
       </c>
       <c r="V29">
-        <v>14.35</v>
+        <v>43.36</v>
       </c>
       <c r="W29">
-        <v>16.856000000000002</v>
+        <v>45.737000000000002</v>
       </c>
       <c r="X29">
-        <v>17.856000000000002</v>
+        <v>61.424999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
@@ -31035,70 +31204,70 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>8.1</v>
+        <v>229.20000000000002</v>
       </c>
       <c r="F30">
-        <v>9.1999999999999993</v>
+        <v>228.10000000000002</v>
       </c>
       <c r="G30">
-        <v>9.1999999999999993</v>
+        <v>236.5</v>
       </c>
       <c r="H30">
-        <v>10.5</v>
+        <v>243.39999999999998</v>
       </c>
       <c r="I30">
-        <v>13.6</v>
+        <v>252.1</v>
       </c>
       <c r="J30">
-        <v>13.4</v>
+        <v>253.9</v>
       </c>
       <c r="K30">
-        <v>15</v>
+        <v>261.2</v>
       </c>
       <c r="L30">
-        <v>15.5</v>
+        <v>266.60000000000002</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>279.59999999999997</v>
       </c>
       <c r="N30">
-        <v>16.5</v>
+        <v>285.3</v>
       </c>
       <c r="O30">
-        <v>16.899999999999999</v>
+        <v>277.10000000000002</v>
       </c>
       <c r="P30">
-        <v>17.5</v>
+        <v>290</v>
       </c>
       <c r="Q30">
-        <v>20.100000000000001</v>
+        <v>279.79999999999995</v>
       </c>
       <c r="R30">
-        <v>19.2</v>
+        <v>284.55</v>
       </c>
       <c r="S30">
-        <v>13.362</v>
+        <v>203.69800000000004</v>
       </c>
       <c r="T30">
-        <v>13.028</v>
+        <v>188.02599999999998</v>
       </c>
       <c r="U30">
-        <v>12.385999999999999</v>
+        <v>193.547</v>
       </c>
       <c r="V30">
-        <v>10.787000000000001</v>
+        <v>195.226</v>
       </c>
       <c r="W30">
-        <v>11.07</v>
+        <v>180.76</v>
       </c>
       <c r="X30">
-        <v>10.901999999999999</v>
+        <v>205.78399999999999</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
@@ -31109,70 +31278,70 @@
         <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>19.5</v>
-      </c>
-      <c r="F31">
-        <v>19.5</v>
-      </c>
-      <c r="G31">
-        <v>20.2</v>
-      </c>
-      <c r="H31">
-        <v>25.8</v>
-      </c>
-      <c r="I31">
-        <v>28.9</v>
-      </c>
-      <c r="J31">
-        <v>28.7</v>
-      </c>
-      <c r="K31">
-        <v>31</v>
-      </c>
-      <c r="L31">
-        <v>28.9</v>
-      </c>
-      <c r="M31">
-        <v>30.4</v>
-      </c>
-      <c r="N31">
-        <v>31.5</v>
-      </c>
-      <c r="O31">
-        <v>31</v>
-      </c>
-      <c r="P31">
-        <v>32.1</v>
-      </c>
-      <c r="Q31">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="R31">
-        <v>46.9</v>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" t="s">
+        <v>27</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>27</v>
       </c>
       <c r="S31">
-        <v>6.3979999999999997</v>
+        <v>16.602</v>
       </c>
       <c r="T31">
-        <v>4.5279999999999996</v>
+        <v>18.173999999999999</v>
       </c>
       <c r="U31">
-        <v>3.371</v>
+        <v>16.486000000000001</v>
       </c>
       <c r="V31">
-        <v>3.5750000000000002</v>
+        <v>14.35</v>
       </c>
       <c r="W31">
-        <v>3.254</v>
+        <v>16.856000000000002</v>
       </c>
       <c r="X31">
-        <v>6.0289999999999999</v>
+        <v>17.856000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
@@ -31183,70 +31352,70 @@
         <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O32" t="s">
-        <v>27</v>
-      </c>
-      <c r="P32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>27</v>
-      </c>
-      <c r="R32" t="s">
-        <v>27</v>
+      <c r="E32">
+        <v>8.1</v>
+      </c>
+      <c r="F32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G32">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="H32">
+        <v>10.5</v>
+      </c>
+      <c r="I32">
+        <v>13.6</v>
+      </c>
+      <c r="J32">
+        <v>13.4</v>
+      </c>
+      <c r="K32">
+        <v>15</v>
+      </c>
+      <c r="L32">
+        <v>15.5</v>
+      </c>
+      <c r="M32">
+        <v>17</v>
+      </c>
+      <c r="N32">
+        <v>16.5</v>
+      </c>
+      <c r="O32">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P32">
+        <v>17.5</v>
+      </c>
+      <c r="Q32">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R32">
+        <v>19.2</v>
       </c>
       <c r="S32">
-        <v>29.397000000000002</v>
+        <v>13.362</v>
       </c>
       <c r="T32">
-        <v>29.391999999999999</v>
+        <v>13.028</v>
       </c>
       <c r="U32">
-        <v>27.986000000000001</v>
+        <v>12.385999999999999</v>
       </c>
       <c r="V32">
-        <v>28.962</v>
+        <v>10.787000000000001</v>
       </c>
       <c r="W32">
-        <v>25.805999999999997</v>
+        <v>11.07</v>
       </c>
       <c r="X32">
-        <v>26.802</v>
+        <v>10.901999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.2">
@@ -31257,70 +31426,70 @@
         <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
       <c r="E33">
-        <v>240.2</v>
+        <v>19.5</v>
       </c>
       <c r="F33">
-        <v>237.39999999999998</v>
+        <v>19.5</v>
       </c>
       <c r="G33">
-        <v>243.3</v>
+        <v>20.2</v>
       </c>
       <c r="H33">
-        <v>244</v>
+        <v>25.8</v>
       </c>
       <c r="I33">
-        <v>240.7</v>
+        <v>28.9</v>
       </c>
       <c r="J33">
-        <v>239.1</v>
+        <v>28.7</v>
       </c>
       <c r="K33">
-        <v>256.60000000000002</v>
+        <v>31</v>
       </c>
       <c r="L33">
-        <v>250.5</v>
+        <v>28.9</v>
       </c>
       <c r="M33">
-        <v>248.2</v>
+        <v>30.4</v>
       </c>
       <c r="N33">
-        <v>248.70000000000002</v>
+        <v>31.5</v>
       </c>
       <c r="O33">
-        <v>250.79999999999998</v>
+        <v>31</v>
       </c>
       <c r="P33">
-        <v>250.2</v>
+        <v>32.1</v>
       </c>
       <c r="Q33">
-        <v>247.1</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="R33">
-        <v>235.6</v>
+        <v>46.9</v>
       </c>
       <c r="S33">
-        <v>188.4</v>
+        <v>6.3979999999999997</v>
       </c>
       <c r="T33">
-        <v>190.8</v>
+        <v>4.5279999999999996</v>
       </c>
       <c r="U33">
-        <v>178.83600000000001</v>
+        <v>3.371</v>
       </c>
       <c r="V33">
-        <v>182.64099999999999</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="W33">
-        <v>176.00299999999999</v>
+        <v>3.254</v>
       </c>
       <c r="X33">
-        <v>197.518</v>
+        <v>6.0289999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.2">
@@ -31331,69 +31500,311 @@
         <v>82</v>
       </c>
       <c r="C34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S34">
+        <v>29.397000000000002</v>
+      </c>
+      <c r="T34">
+        <v>29.391999999999999</v>
+      </c>
+      <c r="U34">
+        <v>27.986000000000001</v>
+      </c>
+      <c r="V34">
+        <v>28.962</v>
+      </c>
+      <c r="W34">
+        <v>25.805999999999997</v>
+      </c>
+      <c r="X34">
+        <v>26.802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35">
+        <f>SUM(E33:E34)</f>
+        <v>19.5</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:X35" si="9">SUM(F33:F34)</f>
+        <v>19.5</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>20.2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="9"/>
+        <v>25.8</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="9"/>
+        <v>28.9</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="9"/>
+        <v>28.7</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="9"/>
+        <v>28.9</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>30.4</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="9"/>
+        <v>31.5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="9"/>
+        <v>31</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="9"/>
+        <v>32.1</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>46.9</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>35.795000000000002</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="9"/>
+        <v>33.92</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="9"/>
+        <v>31.356999999999999</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="9"/>
+        <v>32.536999999999999</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="9"/>
+        <v>29.06</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="9"/>
+        <v>32.831000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>240.2</v>
+      </c>
+      <c r="F36">
+        <v>237.39999999999998</v>
+      </c>
+      <c r="G36">
+        <v>243.3</v>
+      </c>
+      <c r="H36">
+        <v>244</v>
+      </c>
+      <c r="I36">
+        <v>240.7</v>
+      </c>
+      <c r="J36">
+        <v>239.1</v>
+      </c>
+      <c r="K36">
+        <v>256.60000000000002</v>
+      </c>
+      <c r="L36">
+        <v>250.5</v>
+      </c>
+      <c r="M36">
+        <v>248.2</v>
+      </c>
+      <c r="N36">
+        <v>248.70000000000002</v>
+      </c>
+      <c r="O36">
+        <v>250.79999999999998</v>
+      </c>
+      <c r="P36">
+        <v>250.2</v>
+      </c>
+      <c r="Q36">
+        <v>247.1</v>
+      </c>
+      <c r="R36">
+        <v>235.6</v>
+      </c>
+      <c r="S36">
+        <v>188.4</v>
+      </c>
+      <c r="T36">
+        <v>190.8</v>
+      </c>
+      <c r="U36">
+        <v>178.83600000000001</v>
+      </c>
+      <c r="V36">
+        <v>182.64099999999999</v>
+      </c>
+      <c r="W36">
+        <v>176.00299999999999</v>
+      </c>
+      <c r="X36">
+        <v>197.518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34">
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37">
         <v>36.799999999999997</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>31.499999999999684</v>
       </c>
-      <c r="G34">
+      <c r="G37">
         <v>31.39999999999991</v>
       </c>
-      <c r="H34">
+      <c r="H37">
         <v>32.29999999999977</v>
       </c>
-      <c r="I34">
+      <c r="I37">
         <v>34.399999999999864</v>
       </c>
-      <c r="J34">
+      <c r="J37">
         <v>36.499999999999773</v>
       </c>
-      <c r="K34">
+      <c r="K37">
         <v>43.399999999999686</v>
       </c>
-      <c r="L34">
+      <c r="L37">
         <v>44.200000000000088</v>
       </c>
-      <c r="M34">
+      <c r="M37">
         <v>41.999999999999865</v>
       </c>
-      <c r="N34">
+      <c r="N37">
         <v>40.499999999999908</v>
       </c>
-      <c r="O34">
+      <c r="O37">
         <v>39.900000000000048</v>
       </c>
-      <c r="P34">
+      <c r="P37">
         <v>41.00000000000005</v>
       </c>
-      <c r="Q34">
+      <c r="Q37">
         <v>40.600000000000094</v>
       </c>
-      <c r="R34">
+      <c r="R37">
         <v>41.350000000000044</v>
       </c>
-      <c r="S34">
+      <c r="S37">
         <v>34.741999999999997</v>
       </c>
-      <c r="T34">
+      <c r="T37">
         <v>37.652999999999999</v>
       </c>
-      <c r="U34">
+      <c r="U37">
         <v>34.807000000000002</v>
       </c>
-      <c r="V34">
+      <c r="V37">
         <v>33.159999999999997</v>
       </c>
-      <c r="W34">
+      <c r="W37">
         <v>32.030999999999999</v>
       </c>
-      <c r="X34">
+      <c r="X37">
         <v>35.187999999999995</v>
       </c>
     </row>
